--- a/wolfram/powder.xlsx
+++ b/wolfram/powder.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/positronfit/wolfram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36986AF9-EE3F-6549-AD03-520FCED27438}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC46D4-C83A-534B-92C3-7E3ACFAFB3A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{075AA895-8164-0A4E-8E9D-A561C73B54A0}"/>
+    <workbookView minimized="1" xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{075AA895-8164-0A4E-8E9D-A561C73B54A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -406,7 +407,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +450,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>G2*100000000*100000000/1000000000</f>
         <v>10000000</v>
       </c>
